--- a/Data/privatization_ua.xlsx
+++ b/Data/privatization_ua.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3165" windowWidth="15600" windowHeight="9240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2240" yWindow="3160" windowWidth="15600" windowHeight="9240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="privatization" sheetId="1" r:id="rId1"/>
@@ -76,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,26 +382,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -418,7 +423,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
@@ -429,7 +434,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -440,7 +445,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1996</v>
       </c>
@@ -451,7 +456,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1997</v>
       </c>
@@ -462,7 +467,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -473,7 +478,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1999</v>
       </c>
@@ -484,7 +489,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -495,7 +500,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -506,7 +511,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -517,7 +522,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -528,7 +533,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -539,7 +544,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -550,7 +555,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -561,7 +566,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -572,7 +577,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -583,7 +588,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -594,7 +599,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -605,7 +610,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -616,7 +621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -627,7 +632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -638,7 +643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -649,7 +654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -660,7 +665,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -671,7 +676,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -682,7 +687,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1995</v>
       </c>
@@ -693,7 +698,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1996</v>
       </c>
@@ -704,7 +709,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1997</v>
       </c>
@@ -715,7 +720,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1998</v>
       </c>
@@ -726,7 +731,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -737,7 +742,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -748,7 +753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -759,7 +764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -770,7 +775,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -781,7 +786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2004</v>
       </c>
@@ -792,7 +797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -803,7 +808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -814,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2007</v>
       </c>
@@ -825,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2008</v>
       </c>
@@ -836,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -844,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -855,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -866,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -877,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2013</v>
       </c>
@@ -888,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -899,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -910,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -921,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1994</v>
       </c>
@@ -932,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1995</v>
       </c>
@@ -943,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1996</v>
       </c>
@@ -951,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1997</v>
       </c>
@@ -962,7 +967,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1998</v>
       </c>
@@ -973,7 +978,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1999</v>
       </c>
@@ -984,7 +989,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2000</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2001</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2003</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2004</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2005</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2006</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2007</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2008</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2009</v>
       </c>
@@ -1094,7 +1099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2010</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2012</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2013</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2014</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1994</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1995</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1996</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1997</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1998</v>
       </c>
@@ -1217,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1999</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2000</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2003</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2004</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2005</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2006</v>
       </c>
@@ -1305,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2008</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2009</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2010</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -1360,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2012</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2013</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2014</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2015</v>
       </c>
@@ -1404,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1994</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1995</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1996</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1997</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1998</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1999</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2000</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2001</v>
       </c>
@@ -1488,7 +1493,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2004</v>
       </c>
@@ -1521,7 +1526,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2005</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2006</v>
       </c>
@@ -1543,7 +1548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2007</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2008</v>
       </c>
@@ -1565,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2009</v>
       </c>
@@ -1576,7 +1581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2010</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2011</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -1609,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2013</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2014</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2015</v>
       </c>
@@ -1648,26 +1653,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/Data/privatization_ua.xlsx
+++ b/Data/privatization_ua.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="3160" windowWidth="15600" windowHeight="9240" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="3160" windowWidth="19940" windowHeight="11140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="privatization" sheetId="1" r:id="rId1"/>
@@ -111,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -393,7 +394,7 @@
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +420,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>789</v>
       </c>
     </row>
@@ -430,7 +431,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1377</v>
       </c>
     </row>
@@ -441,7 +442,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1759</v>
       </c>
     </row>
@@ -452,7 +453,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1980</v>
       </c>
     </row>
@@ -463,7 +464,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>772</v>
       </c>
     </row>
@@ -474,7 +475,7 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>651</v>
       </c>
     </row>
@@ -485,7 +486,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>682</v>
       </c>
     </row>
@@ -496,7 +497,7 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>678</v>
       </c>
     </row>
@@ -507,7 +508,7 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>816</v>
       </c>
     </row>
@@ -518,7 +519,7 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>903</v>
       </c>
     </row>
@@ -529,7 +530,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>998</v>
       </c>
     </row>
@@ -540,7 +541,7 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>774</v>
       </c>
     </row>
@@ -551,7 +552,7 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>549</v>
       </c>
     </row>
@@ -562,7 +563,7 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>387</v>
       </c>
     </row>
@@ -573,7 +574,7 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>372</v>
       </c>
     </row>
@@ -584,7 +585,7 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>497</v>
       </c>
     </row>
@@ -595,7 +596,7 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>358</v>
       </c>
     </row>
@@ -606,7 +607,7 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>153</v>
       </c>
     </row>
@@ -617,7 +618,7 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>117</v>
       </c>
     </row>
@@ -628,7 +629,7 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>113</v>
       </c>
     </row>
@@ -639,7 +640,7 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>125</v>
       </c>
     </row>
@@ -650,7 +651,7 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>73</v>
       </c>
     </row>
@@ -661,7 +662,7 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>82</v>
       </c>
     </row>
@@ -672,7 +673,7 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>829</v>
       </c>
     </row>
@@ -683,7 +684,7 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1408</v>
       </c>
     </row>
@@ -694,7 +695,7 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>2319</v>
       </c>
     </row>
@@ -705,7 +706,7 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>197</v>
       </c>
     </row>
@@ -716,7 +717,7 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>867</v>
       </c>
     </row>
@@ -727,7 +728,7 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>754</v>
       </c>
     </row>
@@ -738,7 +739,7 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>256</v>
       </c>
     </row>
@@ -749,7 +750,7 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>147</v>
       </c>
     </row>
@@ -760,7 +761,7 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>89</v>
       </c>
     </row>
@@ -771,7 +772,7 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>66</v>
       </c>
     </row>
@@ -782,7 +783,7 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>37</v>
       </c>
     </row>
@@ -793,7 +794,7 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>38</v>
       </c>
     </row>
@@ -804,7 +805,7 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>11</v>
       </c>
     </row>
@@ -815,7 +816,7 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>11</v>
       </c>
     </row>
@@ -826,7 +827,7 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>7</v>
       </c>
     </row>
@@ -837,7 +838,7 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -848,6 +849,7 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -856,7 +858,7 @@
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>9</v>
       </c>
     </row>
@@ -867,7 +869,7 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>5</v>
       </c>
     </row>
@@ -878,7 +880,7 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>16</v>
       </c>
     </row>
@@ -889,7 +891,7 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>9</v>
       </c>
     </row>
@@ -900,7 +902,7 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>5</v>
       </c>
     </row>
@@ -911,7 +913,7 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>6</v>
       </c>
     </row>
@@ -922,7 +924,7 @@
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>8</v>
       </c>
     </row>
@@ -933,7 +935,7 @@
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>10</v>
       </c>
     </row>
@@ -944,7 +946,7 @@
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>21</v>
       </c>
     </row>
@@ -955,6 +957,7 @@
       <c r="B51" t="s">
         <v>5</v>
       </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -963,7 +966,7 @@
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>246</v>
       </c>
     </row>
@@ -974,7 +977,7 @@
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>278</v>
       </c>
     </row>
@@ -985,7 +988,7 @@
       <c r="B54" t="s">
         <v>5</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>386</v>
       </c>
     </row>
@@ -996,7 +999,7 @@
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>616</v>
       </c>
     </row>
@@ -1007,7 +1010,7 @@
       <c r="B56" t="s">
         <v>5</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>599</v>
       </c>
     </row>
@@ -1018,7 +1021,7 @@
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>483</v>
       </c>
     </row>
@@ -1029,7 +1032,7 @@
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>397</v>
       </c>
     </row>
@@ -1040,7 +1043,7 @@
       <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>264</v>
       </c>
     </row>
@@ -1051,7 +1054,7 @@
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>234</v>
       </c>
     </row>
@@ -1062,7 +1065,7 @@
       <c r="B61" t="s">
         <v>5</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>201</v>
       </c>
     </row>
@@ -1073,7 +1076,7 @@
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>49</v>
       </c>
     </row>
@@ -1084,7 +1087,7 @@
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1095,7 +1098,7 @@
       <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>24</v>
       </c>
     </row>
@@ -1106,7 +1109,7 @@
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1117,7 +1120,7 @@
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>30</v>
       </c>
     </row>
@@ -1128,7 +1131,7 @@
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>26</v>
       </c>
     </row>
@@ -1139,7 +1142,7 @@
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1150,7 +1153,7 @@
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1161,7 +1164,7 @@
       <c r="B70" t="s">
         <v>5</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1172,6 +1175,7 @@
       <c r="B71" t="s">
         <v>6</v>
       </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -1180,6 +1184,7 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -1188,6 +1193,7 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -1196,7 +1202,7 @@
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>173</v>
       </c>
     </row>
@@ -1207,7 +1213,7 @@
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>133</v>
       </c>
     </row>
@@ -1218,7 +1224,7 @@
       <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1229,7 +1235,7 @@
       <c r="B77" t="s">
         <v>6</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>166</v>
       </c>
     </row>
@@ -1240,7 +1246,7 @@
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>66</v>
       </c>
     </row>
@@ -1251,7 +1257,7 @@
       <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>26</v>
       </c>
     </row>
@@ -1262,7 +1268,7 @@
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1273,7 +1279,7 @@
       <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>25</v>
       </c>
     </row>
@@ -1284,7 +1290,7 @@
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>37</v>
       </c>
     </row>
@@ -1295,7 +1301,7 @@
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1306,7 +1312,7 @@
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1317,7 +1323,7 @@
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>15</v>
       </c>
     </row>
@@ -1328,7 +1334,7 @@
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1339,7 +1345,7 @@
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1350,7 +1356,7 @@
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1361,7 +1367,7 @@
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1372,7 +1378,7 @@
       <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1383,7 +1389,7 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1394,7 +1400,7 @@
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1405,7 +1411,7 @@
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1416,6 +1422,7 @@
       <c r="B94" t="s">
         <v>7</v>
       </c>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -1424,6 +1431,7 @@
       <c r="B95" t="s">
         <v>7</v>
       </c>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -1432,6 +1440,7 @@
       <c r="B96" t="s">
         <v>7</v>
       </c>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
@@ -1440,6 +1449,7 @@
       <c r="B97" t="s">
         <v>7</v>
       </c>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -1448,6 +1458,7 @@
       <c r="B98" t="s">
         <v>7</v>
       </c>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -1456,7 +1467,7 @@
       <c r="B99" t="s">
         <v>7</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>263</v>
       </c>
     </row>
@@ -1467,7 +1478,7 @@
       <c r="B100" t="s">
         <v>7</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>169</v>
       </c>
     </row>
@@ -1478,7 +1489,7 @@
       <c r="B101" t="s">
         <v>7</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>198</v>
       </c>
     </row>
@@ -1489,7 +1500,7 @@
       <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>120</v>
       </c>
     </row>
@@ -1500,7 +1511,7 @@
       <c r="B103" t="s">
         <v>7</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>125</v>
       </c>
     </row>
@@ -1511,7 +1522,7 @@
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>112</v>
       </c>
     </row>
@@ -1522,7 +1533,7 @@
       <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>123</v>
       </c>
     </row>
@@ -1533,7 +1544,7 @@
       <c r="B106" t="s">
         <v>7</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>77</v>
       </c>
     </row>
@@ -1544,7 +1555,7 @@
       <c r="B107" t="s">
         <v>7</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>64</v>
       </c>
     </row>
@@ -1555,7 +1566,7 @@
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>45</v>
       </c>
     </row>
@@ -1566,7 +1577,7 @@
       <c r="B109" t="s">
         <v>7</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>21</v>
       </c>
     </row>
@@ -1577,7 +1588,7 @@
       <c r="B110" t="s">
         <v>7</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1588,7 +1599,7 @@
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1599,7 +1610,7 @@
       <c r="B112" t="s">
         <v>7</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1610,7 +1621,7 @@
       <c r="B113" t="s">
         <v>7</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1621,7 +1632,7 @@
       <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1632,7 +1643,7 @@
       <c r="B115" t="s">
         <v>7</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1643,7 +1654,7 @@
       <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>9</v>
       </c>
     </row>

--- a/Data/privatization_ua.xlsx
+++ b/Data/privatization_ua.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="3160" windowWidth="19940" windowHeight="11140" tabRatio="500"/>
+    <workbookView xWindow="2235" yWindow="3165" windowWidth="15600" windowHeight="9240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="privatization" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -54,9 +49,6 @@
     <t>Zh</t>
   </si>
   <si>
-    <t>Data source - data is taken from official annual summary reports of the State Property Fund of Ukraine for the relevant years (1992 to 2016). http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
-  </si>
-  <si>
     <t>Companies class:</t>
   </si>
   <si>
@@ -76,19 +68,126 @@
   </si>
   <si>
     <t xml:space="preserve">shares owned by the state in the authorized capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">year </t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2000.pdf</t>
+  </si>
+  <si>
+    <t>page 54. Annex 4</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>calculated as delta between data of 2002 and 2000 for relevant group</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2002_t.pdf</t>
+  </si>
+  <si>
+    <t>page 26</t>
+  </si>
+  <si>
+    <t>part one - http://www.spfu.gov.ua/userfiles/pdf/zvit_20031.pdf, part 2 -http://www.spfu.gov.ua/userfiles/pdf/zvit_20032.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annex 1. Page number is not available as far as there is no page numeration in annexes </t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2004_12.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annex 12. Page number is not available as far as there is no page numeration in annexes </t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200512_1.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200612.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200712.pdf</t>
+  </si>
+  <si>
+    <t>calculated as delta between data of 2008 and 2006 for relevant group</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2008.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2009_12.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/201012.pdf</t>
+  </si>
+  <si>
+    <t>calculated as delta between data of 2011 and 2009 for relevant group</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/zip/zvit_dodatki_za_2011.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annex 1. Page number is not available as far as the annex is given as a separate file in the archive </t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/zvit_19032013_1.pdf</t>
+  </si>
+  <si>
+    <t>Annex 1. Page 117</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/doc/zvit_SPFU_za_2013.doc</t>
+  </si>
+  <si>
+    <t>Annex 1. Page 102</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/Zvit%202014.pdf</t>
+  </si>
+  <si>
+    <t>Annex 1. Page 84</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
+  </si>
+  <si>
+    <t>Annex 1. Page 80</t>
+  </si>
+  <si>
+    <t>1992-2000</t>
+  </si>
+  <si>
+    <t>Data source - data is taken from official annual summary reports of the State Property Fund of Ukraine for relevant years. http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
+  </si>
+  <si>
+    <t>link to the report</t>
+  </si>
+  <si>
+    <t>page number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,14 +207,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,26 +487,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C116"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,1248 +517,1238 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1994</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1995</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1996</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>1980</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1997</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1998</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1999</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2000</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2001</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2002</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>903</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2003</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2004</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2005</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2006</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2007</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2008</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>497</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>2009</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>2010</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>2011</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>2012</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2013</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>2014</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2015</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>1994</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1408</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>1995</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>2319</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1996</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1997</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>1998</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>1999</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>2000</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>2001</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>2002</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>2003</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>2004</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>2005</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>2006</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>2007</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>2008</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>2009</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>2010</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>2011</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>2012</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>2013</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>2014</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>2015</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>1994</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>1995</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>1996</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>1997</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>1998</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>1999</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2000</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>2001</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2002</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2003</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2004</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>2005</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2006</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>2007</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>2008</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>2009</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>2010</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>2011</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>2012</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>2013</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>2014</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>1994</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>1995</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>1996</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>1997</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>1998</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>1999</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>2000</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>2001</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>2002</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>2003</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>2004</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>2005</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>2006</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>2007</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>2008</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>2009</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>2010</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>2011</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>2012</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>2013</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>2014</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>2015</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>1994</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>1995</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>1996</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>1997</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>1998</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>1999</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>2000</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>2001</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>2002</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>2003</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>2004</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>2005</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>2006</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>2007</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>2008</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>2009</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>2010</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>2011</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>2012</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>2013</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>2014</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>2015</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>9</v>
       </c>
     </row>
@@ -1664,66 +1758,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="3" max="3" width="83.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2009</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B27" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/privatization_ua.xlsx
+++ b/Data/privatization_ua.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3165" windowWidth="15600" windowHeight="9240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2240" yWindow="3160" windowWidth="15600" windowHeight="9240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="privatization" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -70,110 +75,31 @@
     <t xml:space="preserve">shares owned by the state in the authorized capital </t>
   </si>
   <si>
-    <t xml:space="preserve">year </t>
+    <t>Data source</t>
   </si>
   <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/2000.pdf</t>
+    <t xml:space="preserve"> 1992-1999</t>
   </si>
   <si>
-    <t>page 54. Annex 4</t>
-  </si>
-  <si>
-    <t>not found</t>
-  </si>
-  <si>
-    <t>calculated as delta between data of 2002 and 2000 for relevant group</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/2002_t.pdf</t>
-  </si>
-  <si>
-    <t>page 26</t>
-  </si>
-  <si>
-    <t>part one - http://www.spfu.gov.ua/userfiles/pdf/zvit_20031.pdf, part 2 -http://www.spfu.gov.ua/userfiles/pdf/zvit_20032.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annex 1. Page number is not available as far as there is no page numeration in annexes </t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/2004_12.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annex 12. Page number is not available as far as there is no page numeration in annexes </t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/200512_1.pdf</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/200612.pdf</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/200712.pdf</t>
-  </si>
-  <si>
-    <t>calculated as delta between data of 2008 and 2006 for relevant group</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/2008.pdf</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/2009_12.pdf</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/201012.pdf</t>
-  </si>
-  <si>
-    <t>calculated as delta between data of 2011 and 2009 for relevant group</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/zip/zvit_dodatki_za_2011.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annex 1. Page number is not available as far as the annex is given as a separate file in the archive </t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/zvit_19032013_1.pdf</t>
-  </si>
-  <si>
-    <t>Annex 1. Page 117</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/doc/zvit_SPFU_za_2013.doc</t>
-  </si>
-  <si>
-    <t>Annex 1. Page 102</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/userfiles/pdf/Zvit%202014.pdf</t>
-  </si>
-  <si>
-    <t>Annex 1. Page 84</t>
-  </si>
-  <si>
-    <t>http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
-  </si>
-  <si>
-    <t>Annex 1. Page 80</t>
-  </si>
-  <si>
-    <t>1992-2000</t>
-  </si>
-  <si>
-    <t>Data source - data is taken from official annual summary reports of the State Property Fund of Ukraine for relevant years. http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
-  </si>
-  <si>
-    <t>link to the report</t>
-  </si>
-  <si>
-    <t>page number</t>
+    <r>
+      <t xml:space="preserve">Official answer of SPFU from 24.03.2017 № 10.23.6001 on request № Ш-00191/17 from 27.02.2017 and the answer from 03.05.2017 №10.23.7724 on requests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>№ Ш-0000312 and № ПІ-0000313 from 04.04.2017</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +113,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -487,26 +419,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -528,7 +460,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
@@ -536,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -550,7 +482,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1996</v>
       </c>
@@ -558,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1997</v>
       </c>
@@ -572,7 +504,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1998</v>
       </c>
@@ -583,7 +515,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1999</v>
       </c>
@@ -594,7 +526,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2000</v>
       </c>
@@ -605,7 +537,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -616,7 +548,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -627,7 +559,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -638,7 +570,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -649,7 +581,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -660,7 +592,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -671,7 +603,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2007</v>
       </c>
@@ -679,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -690,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -701,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2010</v>
       </c>
@@ -715,7 +647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -726,7 +658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -737,7 +669,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -748,7 +680,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -759,7 +691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -770,7 +702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -778,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1994</v>
       </c>
@@ -789,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1995</v>
       </c>
@@ -803,7 +735,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1996</v>
       </c>
@@ -811,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1997</v>
       </c>
@@ -825,7 +757,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1998</v>
       </c>
@@ -836,7 +768,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1999</v>
       </c>
@@ -847,7 +779,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -855,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2001</v>
       </c>
@@ -869,7 +801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2002</v>
       </c>
@@ -880,7 +812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2003</v>
       </c>
@@ -891,7 +823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2004</v>
       </c>
@@ -902,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -913,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2006</v>
       </c>
@@ -924,7 +856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2007</v>
       </c>
@@ -935,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2008</v>
       </c>
@@ -943,18 +875,21 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2009</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="C41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -965,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -976,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -987,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2013</v>
       </c>
@@ -998,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -1009,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -1020,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1028,10 +963,10 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1994</v>
       </c>
@@ -1042,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1995</v>
       </c>
@@ -1053,15 +988,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1996</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1997</v>
       </c>
@@ -1072,7 +1010,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1998</v>
       </c>
@@ -1083,7 +1021,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1999</v>
       </c>
@@ -1094,7 +1032,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2000</v>
       </c>
@@ -1102,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2001</v>
       </c>
@@ -1116,7 +1054,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2002</v>
       </c>
@@ -1127,7 +1065,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2003</v>
       </c>
@@ -1138,7 +1076,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2004</v>
       </c>
@@ -1149,7 +1087,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2005</v>
       </c>
@@ -1160,7 +1098,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2006</v>
       </c>
@@ -1171,7 +1109,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2007</v>
       </c>
@@ -1182,7 +1120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2008</v>
       </c>
@@ -1190,10 +1128,10 @@
         <v>5</v>
       </c>
       <c r="C63">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2009</v>
       </c>
@@ -1201,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2010</v>
       </c>
@@ -1212,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -1226,7 +1164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2012</v>
       </c>
@@ -1237,7 +1175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2013</v>
       </c>
@@ -1248,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2014</v>
       </c>
@@ -1259,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -1270,15 +1208,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1994</v>
       </c>
@@ -1286,7 +1227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1995</v>
       </c>
@@ -1294,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1996</v>
       </c>
@@ -1305,7 +1246,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1997</v>
       </c>
@@ -1316,7 +1257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1998</v>
       </c>
@@ -1324,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1999</v>
       </c>
@@ -1335,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2000</v>
       </c>
@@ -1349,7 +1290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2001</v>
       </c>
@@ -1357,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2002</v>
       </c>
@@ -1371,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2003</v>
       </c>
@@ -1382,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2004</v>
       </c>
@@ -1393,7 +1334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2005</v>
       </c>
@@ -1404,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2006</v>
       </c>
@@ -1415,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -1426,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2008</v>
       </c>
@@ -1434,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2009</v>
       </c>
@@ -1445,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2010</v>
       </c>
@@ -1459,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -1470,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2012</v>
       </c>
@@ -1481,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2013</v>
       </c>
@@ -1492,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2014</v>
       </c>
@@ -1503,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2015</v>
       </c>
@@ -1514,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1994</v>
       </c>
@@ -1530,7 +1471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1995</v>
       </c>
@@ -1538,7 +1479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1996</v>
       </c>
@@ -1546,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1997</v>
       </c>
@@ -1554,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1998</v>
       </c>
@@ -1562,10 +1503,10 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1999</v>
       </c>
@@ -1576,7 +1517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2000</v>
       </c>
@@ -1584,10 +1525,10 @@
         <v>7</v>
       </c>
       <c r="C101">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2001</v>
       </c>
@@ -1598,7 +1539,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -1609,7 +1550,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -1620,7 +1561,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2004</v>
       </c>
@@ -1631,7 +1572,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2005</v>
       </c>
@@ -1642,7 +1583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2006</v>
       </c>
@@ -1653,7 +1594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2007</v>
       </c>
@@ -1664,7 +1605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2008</v>
       </c>
@@ -1672,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2009</v>
       </c>
@@ -1683,10 +1624,10 @@
         <v>7</v>
       </c>
       <c r="C110">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2010</v>
       </c>
@@ -1694,10 +1635,10 @@
         <v>7</v>
       </c>
       <c r="C111">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2011</v>
       </c>
@@ -1708,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -1719,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2013</v>
       </c>
@@ -1730,7 +1671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2014</v>
       </c>
@@ -1741,7 +1682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2015</v>
       </c>
@@ -1758,25 +1699,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
     <col min="3" max="3" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1808,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1816,204 +1758,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>2003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>2004</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>2005</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>2007</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>2008</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2009</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2010</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>2011</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>2012</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>2015</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-    <hyperlink ref="B23" r:id="rId2"/>
-    <hyperlink ref="B27" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>